--- a/data/zenodo/CoMix_last_wave_dictionary.xlsx
+++ b/data/zenodo/CoMix_last_wave_dictionary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="185">
   <si>
     <t xml:space="preserve">Data repository name</t>
   </si>
@@ -138,34 +138,148 @@
     <t xml:space="preserve">Number of aggregated contacts reported with older adults (65+) at other places</t>
   </si>
   <si>
-    <t xml:space="preserve">multiple_contacts_work_precautions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During the contact, did you keep a safe distance and/or wear a face mask?</t>
-  </si>
-  <si>
     <t xml:space="preserve">multiple_contacts_work_duration</t>
   </si>
   <si>
     <t xml:space="preserve">Average duration of multiple contacts at work</t>
   </si>
   <si>
-    <t xml:space="preserve">multiple_contacts_school_precautions</t>
-  </si>
-  <si>
     <t xml:space="preserve">multiple_contacts_school_duration</t>
   </si>
   <si>
     <t xml:space="preserve">Average duration of multiple contacts at school</t>
   </si>
   <si>
-    <t xml:space="preserve">multiple_contacts_other_precautions</t>
-  </si>
-  <si>
     <t xml:space="preserve">multiple_contacts_other_duration</t>
   </si>
   <si>
     <t xml:space="preserve">Average duration of multiple contacts in other locations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_employstatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment status of the participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_att_serious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perceived severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_att_likely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perceived susceptiblity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_face_mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the participant wore a mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_work_closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the participant working place was closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_symp_fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the participant had fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_symp_cough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the participant had cough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_symp_sob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the participant had shortness of breath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_symp_congestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the participant had congestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_symp_sore_throat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the participant had sore throat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_symp_fatigue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the participant had fatigue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_symp_bodyaches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the participant had body ache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_symp_headache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the participant had headache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_high_risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self reported high risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_att_spread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perceived risk to the vulnerable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample type (either children or adult)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_uid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique participant identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_size_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregated household size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_high_risk_v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self reported high risk as yes/no variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_attend_work_yesterday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the participant attended work on the day for which the contact reporting is done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_vacc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the participant is vaccinated against COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">cont_id</t>
@@ -634,7 +748,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.08"/>
@@ -716,8 +830,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -730,21 +844,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="87.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="87.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +870,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -767,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -778,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>19</v>
       </c>
@@ -789,7 +903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -801,7 +915,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -813,7 +927,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -825,7 +939,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -837,7 +951,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -849,7 +963,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -861,7 +975,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -873,7 +987,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -885,18 +999,18 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -907,100 +1021,267 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>38</v>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>42</v>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>38</v>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>45</v>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1019,9 +1300,9 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.17"/>
@@ -1058,40 +1339,40 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1101,10 +1382,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -1121,16 +1402,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,16 +1421,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,7 +1438,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1165,7 +1446,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,7 +1454,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,21 +1462,21 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,117 +1484,117 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1322,8 +1603,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1342,9 +1623,9 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="44.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.15"/>
@@ -1365,95 +1646,95 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,10 +1753,10 @@
       <c r="B10" s="5"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,10 +1764,10 @@
       <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,82 +1775,82 @@
       <c r="B12" s="5"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
       <c r="D15" s="2" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
       <c r="D16" s="2" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
       <c r="D17" s="2" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
       <c r="D18" s="2" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
       <c r="D19" s="2" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,7 +1862,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1600,10 +1881,10 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="2" width="8.4"/>
@@ -1626,7 +1907,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1634,22 +1915,22 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -1658,8 +1939,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1678,7 +1959,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.87"/>
@@ -1714,22 +1995,22 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -1738,10 +2019,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1750,10 +2031,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -1762,16 +2043,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,7 +2060,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,7 +2068,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,7 +2076,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,7 +2084,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,20 +2092,20 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
@@ -1833,8 +2114,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
